--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H2">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J2">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.18754548764854</v>
+        <v>9.827738000000002</v>
       </c>
       <c r="N2">
-        <v>4.18754548764854</v>
+        <v>29.483214</v>
       </c>
       <c r="O2">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="P2">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="Q2">
-        <v>255.2333759853444</v>
+        <v>1404.456026833427</v>
       </c>
       <c r="R2">
-        <v>255.2333759853444</v>
+        <v>12640.10424150084</v>
       </c>
       <c r="S2">
-        <v>0.07555950568266782</v>
+        <v>0.2157960196038513</v>
       </c>
       <c r="T2">
-        <v>0.07555950568266782</v>
+        <v>0.2157960196038513</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H3">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J3">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.2258993976062</v>
+        <v>9.362736333333332</v>
       </c>
       <c r="N3">
-        <v>9.2258993976062</v>
+        <v>28.088209</v>
       </c>
       <c r="O3">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="P3">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="Q3">
-        <v>562.3240288846314</v>
+        <v>1338.003869354504</v>
       </c>
       <c r="R3">
-        <v>562.3240288846314</v>
+        <v>12042.03482419054</v>
       </c>
       <c r="S3">
-        <v>0.1664708837234857</v>
+        <v>0.2055855816805139</v>
       </c>
       <c r="T3">
-        <v>0.1664708837234857</v>
+        <v>0.2055855816805139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>60.9505918773117</v>
+        <v>142.9073533333333</v>
       </c>
       <c r="H4">
-        <v>60.9505918773117</v>
+        <v>428.72206</v>
       </c>
       <c r="I4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504187</v>
       </c>
       <c r="J4">
-        <v>0.3535280203658204</v>
+        <v>0.5576664151504188</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.17925431340871</v>
+        <v>6.206655</v>
       </c>
       <c r="N4">
-        <v>6.17925431340871</v>
+        <v>18.619965</v>
       </c>
       <c r="O4">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="P4">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="Q4">
-        <v>376.6292077626922</v>
+        <v>886.9766391031001</v>
       </c>
       <c r="R4">
-        <v>376.6292077626922</v>
+        <v>7982.7897519279</v>
       </c>
       <c r="S4">
-        <v>0.1114976309596669</v>
+        <v>0.1362848138660535</v>
       </c>
       <c r="T4">
-        <v>0.1114976309596669</v>
+        <v>0.1362848138660536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H5">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J5">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.18754548764854</v>
+        <v>9.827738000000002</v>
       </c>
       <c r="N5">
-        <v>4.18754548764854</v>
+        <v>29.483214</v>
       </c>
       <c r="O5">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="P5">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="Q5">
-        <v>262.7873943120062</v>
+        <v>628.6588672860421</v>
       </c>
       <c r="R5">
-        <v>262.7873943120062</v>
+        <v>5657.929805574378</v>
       </c>
       <c r="S5">
-        <v>0.07779580369219287</v>
+        <v>0.09659403972573335</v>
       </c>
       <c r="T5">
-        <v>0.07779580369219287</v>
+        <v>0.09659403972573337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H6">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J6">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.2258993976062</v>
+        <v>9.362736333333332</v>
       </c>
       <c r="N6">
-        <v>9.2258993976062</v>
+        <v>28.088209</v>
       </c>
       <c r="O6">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="P6">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="Q6">
-        <v>578.9668601887972</v>
+        <v>598.9137294880269</v>
       </c>
       <c r="R6">
-        <v>578.9668601887972</v>
+        <v>5390.223565392243</v>
       </c>
       <c r="S6">
-        <v>0.1713978416561936</v>
+        <v>0.09202367068836866</v>
       </c>
       <c r="T6">
-        <v>0.1713978416561936</v>
+        <v>0.09202367068836868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>62.7545169567987</v>
+        <v>63.967809</v>
       </c>
       <c r="H7">
-        <v>62.7545169567987</v>
+        <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="J7">
-        <v>0.3639912175653325</v>
+        <v>0.2496211559306514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.17925431340871</v>
+        <v>6.206655</v>
       </c>
       <c r="N7">
-        <v>6.17925431340871</v>
+        <v>18.619965</v>
       </c>
       <c r="O7">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="P7">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="Q7">
-        <v>387.7761195911784</v>
+        <v>397.026121568895</v>
       </c>
       <c r="R7">
-        <v>387.7761195911784</v>
+        <v>3573.235094120055</v>
       </c>
       <c r="S7">
-        <v>0.1147975722169461</v>
+        <v>0.06100344551654933</v>
       </c>
       <c r="T7">
-        <v>0.1147975722169461</v>
+        <v>0.06100344551654934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H8">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J8">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.18754548764854</v>
+        <v>9.827738000000002</v>
       </c>
       <c r="N8">
-        <v>4.18754548764854</v>
+        <v>29.483214</v>
       </c>
       <c r="O8">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="P8">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="Q8">
-        <v>203.9400398280714</v>
+        <v>485.3369772463267</v>
       </c>
       <c r="R8">
-        <v>203.9400398280714</v>
+        <v>4368.032795216941</v>
       </c>
       <c r="S8">
-        <v>0.06037458282570965</v>
+        <v>0.07457249344606501</v>
       </c>
       <c r="T8">
-        <v>0.06037458282570965</v>
+        <v>0.07457249344606502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H9">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J9">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.2258993976062</v>
+        <v>9.362736333333332</v>
       </c>
       <c r="N9">
-        <v>9.2258993976062</v>
+        <v>28.088209</v>
       </c>
       <c r="O9">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="P9">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="Q9">
-        <v>449.3157856188773</v>
+        <v>462.3731473889877</v>
       </c>
       <c r="R9">
-        <v>449.3157856188773</v>
+        <v>4161.35832650089</v>
       </c>
       <c r="S9">
-        <v>0.133015827282445</v>
+        <v>0.07104407889737543</v>
       </c>
       <c r="T9">
-        <v>0.133015827282445</v>
+        <v>0.07104407889737545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.7015700318019</v>
+        <v>49.38440333333333</v>
       </c>
       <c r="H10">
-        <v>48.7015700318019</v>
+        <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="J10">
-        <v>0.2824807620688471</v>
+        <v>0.1927124289189298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.17925431340871</v>
+        <v>6.206655</v>
       </c>
       <c r="N10">
-        <v>6.17925431340871</v>
+        <v>18.619965</v>
       </c>
       <c r="O10">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="P10">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="Q10">
-        <v>300.9393866887883</v>
+        <v>306.51195387085</v>
       </c>
       <c r="R10">
-        <v>300.9393866887883</v>
+        <v>2758.60758483765</v>
       </c>
       <c r="S10">
-        <v>0.08909035196069241</v>
+        <v>0.04709585657548936</v>
       </c>
       <c r="T10">
-        <v>0.08909035196069241</v>
+        <v>0.04709585657548936</v>
       </c>
     </row>
   </sheetData>
